--- a/documents/PC原型及需求/需求整理.xlsx
+++ b/documents/PC原型及需求/需求整理.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22860" windowHeight="10950"/>
+    <workbookView windowWidth="22860" windowHeight="10530"/>
   </bookViews>
   <sheets>
     <sheet name="需求整理" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95">
   <si>
     <t>项目开发评估计划</t>
   </si>
@@ -143,6 +143,9 @@
   </si>
   <si>
     <t>消息</t>
+  </si>
+  <si>
+    <t>王仁禧</t>
   </si>
   <si>
     <t>页面可用</t>
@@ -303,10 +306,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -377,8 +380,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -407,29 +426,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -450,6 +446,30 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -482,25 +502,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -521,6 +524,168 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -540,168 +705,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -847,6 +850,26 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -870,26 +893,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -898,10 +901,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -910,19 +913,19 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -931,112 +934,112 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="14" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1441,8 +1444,8 @@
   <sheetPr/>
   <dimension ref="A1:K75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="E74" sqref="E74"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.125" defaultRowHeight="13.5"/>
@@ -1985,14 +1988,16 @@
         <v>42</v>
       </c>
       <c r="C27" s="3"/>
-      <c r="D27" s="3"/>
+      <c r="D27" s="3" t="s">
+        <v>43</v>
+      </c>
       <c r="E27" s="3">
         <v>1</v>
       </c>
       <c r="F27" s="13"/>
       <c r="G27" s="13"/>
       <c r="H27" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I27" s="16"/>
       <c r="J27" s="13"/>
@@ -2001,7 +2006,7 @@
     <row r="28" spans="1:11">
       <c r="A28" s="14"/>
       <c r="B28" s="5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D28" s="3"/>
       <c r="E28" s="3">
@@ -2019,10 +2024,10 @@
     <row r="29" spans="1:11">
       <c r="A29" s="14"/>
       <c r="B29" s="12" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D29" s="3"/>
       <c r="E29" s="3">
@@ -2041,7 +2046,7 @@
       <c r="A30" s="14"/>
       <c r="B30" s="14"/>
       <c r="C30" s="3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D30" s="3"/>
       <c r="E30" s="3">
@@ -2060,7 +2065,7 @@
       <c r="A31" s="14"/>
       <c r="B31" s="14"/>
       <c r="C31" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D31" s="3"/>
       <c r="E31" s="3">
@@ -2079,7 +2084,7 @@
       <c r="A32" s="14"/>
       <c r="B32" s="14"/>
       <c r="C32" s="3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D32" s="3"/>
       <c r="E32" s="3">
@@ -2098,7 +2103,7 @@
       <c r="A33" s="14"/>
       <c r="B33" s="15"/>
       <c r="C33" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D33" s="3"/>
       <c r="E33" s="3">
@@ -2116,10 +2121,10 @@
     <row r="34" spans="1:11">
       <c r="A34" s="14"/>
       <c r="B34" s="14" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D34" s="3"/>
       <c r="E34" s="3">
@@ -2138,7 +2143,7 @@
       <c r="A35" s="14"/>
       <c r="B35" s="14"/>
       <c r="C35" s="3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D35" s="3"/>
       <c r="E35" s="3">
@@ -2157,7 +2162,7 @@
       <c r="A36" s="14"/>
       <c r="B36" s="15"/>
       <c r="C36" s="3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D36" s="3"/>
       <c r="E36" s="3">
@@ -2175,7 +2180,7 @@
     <row r="37" spans="1:11">
       <c r="A37" s="14"/>
       <c r="B37" s="5" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C37" s="3"/>
       <c r="D37" s="3"/>
@@ -2185,7 +2190,7 @@
       <c r="F37" s="13"/>
       <c r="G37" s="13"/>
       <c r="H37" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I37" s="16"/>
       <c r="J37" s="13"/>
@@ -2194,7 +2199,7 @@
     <row r="38" spans="1:11">
       <c r="A38" s="14"/>
       <c r="B38" s="5" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C38" s="3"/>
       <c r="D38" s="3"/>
@@ -2204,7 +2209,7 @@
       <c r="F38" s="13"/>
       <c r="G38" s="13"/>
       <c r="H38" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I38" s="16"/>
       <c r="J38" s="13"/>
@@ -2213,7 +2218,7 @@
     <row r="39" spans="1:11">
       <c r="A39" s="14"/>
       <c r="B39" s="5" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C39" s="3"/>
       <c r="D39" s="3"/>
@@ -2223,7 +2228,7 @@
       <c r="F39" s="13"/>
       <c r="G39" s="13"/>
       <c r="H39" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I39" s="16"/>
       <c r="J39" s="13"/>
@@ -2232,7 +2237,7 @@
     <row r="40" spans="1:11">
       <c r="A40" s="14"/>
       <c r="B40" s="5" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C40" s="3"/>
       <c r="D40" s="3"/>
@@ -2242,7 +2247,7 @@
       <c r="F40" s="13"/>
       <c r="G40" s="13"/>
       <c r="H40" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I40" s="16"/>
       <c r="J40" s="13"/>
@@ -2293,7 +2298,7 @@
     <row r="43" customFormat="1" spans="1:11">
       <c r="A43" s="14"/>
       <c r="B43" s="12" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C43" s="3" t="s">
         <v>36</v>
@@ -2315,7 +2320,7 @@
       <c r="A44" s="14"/>
       <c r="B44" s="14"/>
       <c r="C44" s="3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D44" s="3"/>
       <c r="E44" s="3">
@@ -2352,10 +2357,10 @@
     <row r="46" customFormat="1" spans="1:11">
       <c r="A46" s="14"/>
       <c r="B46" s="14" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D46" s="3"/>
       <c r="E46" s="3">
@@ -2364,7 +2369,7 @@
       <c r="F46" s="13"/>
       <c r="G46" s="13"/>
       <c r="H46" s="3" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="I46" s="16"/>
       <c r="J46" s="13"/>
@@ -2374,7 +2379,7 @@
       <c r="A47" s="14"/>
       <c r="B47" s="14"/>
       <c r="C47" s="3" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D47" s="3"/>
       <c r="E47" s="3">
@@ -2383,7 +2388,7 @@
       <c r="F47" s="13"/>
       <c r="G47" s="13"/>
       <c r="H47" s="3" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="I47" s="16"/>
       <c r="J47" s="13"/>
@@ -2393,7 +2398,7 @@
       <c r="A48" s="14"/>
       <c r="B48" s="14"/>
       <c r="C48" s="3" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D48" s="3"/>
       <c r="E48" s="3">
@@ -2402,7 +2407,7 @@
       <c r="F48" s="13"/>
       <c r="G48" s="13"/>
       <c r="H48" s="3" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="I48" s="16"/>
       <c r="J48" s="13"/>
@@ -2412,7 +2417,7 @@
       <c r="A49" s="14"/>
       <c r="B49" s="15"/>
       <c r="C49" s="3" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D49" s="3"/>
       <c r="E49" s="3">
@@ -2421,7 +2426,7 @@
       <c r="F49" s="13"/>
       <c r="G49" s="13"/>
       <c r="H49" s="3" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="I49" s="16"/>
       <c r="J49" s="13"/>
@@ -2430,10 +2435,10 @@
     <row r="50" customFormat="1" spans="1:11">
       <c r="A50" s="14"/>
       <c r="B50" s="12" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D50" s="3"/>
       <c r="E50" s="3">
@@ -2452,7 +2457,7 @@
       <c r="A51" s="14"/>
       <c r="B51" s="14"/>
       <c r="C51" s="3" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D51" s="3"/>
       <c r="E51" s="3">
@@ -2471,7 +2476,7 @@
       <c r="A52" s="14"/>
       <c r="B52" s="15"/>
       <c r="C52" s="3" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D52" s="3"/>
       <c r="E52" s="3">
@@ -2489,7 +2494,7 @@
     <row r="53" customFormat="1" spans="1:11">
       <c r="A53" s="14"/>
       <c r="B53" s="5" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C53" s="3"/>
       <c r="D53" s="3"/>
@@ -2529,7 +2534,7 @@
     <row r="55" customFormat="1" spans="1:11">
       <c r="A55" s="9"/>
       <c r="B55" s="9" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C55" s="3"/>
       <c r="D55" s="3"/>
@@ -2548,7 +2553,7 @@
     <row r="56" customFormat="1" spans="1:11">
       <c r="A56" s="9"/>
       <c r="B56" s="9" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C56" s="3"/>
       <c r="D56" s="3"/>
@@ -2567,7 +2572,7 @@
     <row r="57" customFormat="1" spans="1:11">
       <c r="A57" s="9"/>
       <c r="B57" s="9" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C57" s="3"/>
       <c r="D57" s="3"/>
@@ -2586,7 +2591,7 @@
     <row r="58" customFormat="1" spans="1:11">
       <c r="A58" s="9"/>
       <c r="B58" s="9" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C58" s="3"/>
       <c r="D58" s="3"/>
@@ -2604,10 +2609,10 @@
     </row>
     <row r="59" customFormat="1" spans="1:11">
       <c r="A59" s="9" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B59" s="5" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C59" s="5"/>
       <c r="D59" s="3"/>
@@ -2626,7 +2631,7 @@
     <row r="60" customFormat="1" spans="1:11">
       <c r="A60" s="9"/>
       <c r="B60" s="5" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C60" s="5"/>
       <c r="D60" s="3"/>
@@ -2636,7 +2641,7 @@
       <c r="F60" s="5"/>
       <c r="G60" s="3"/>
       <c r="H60" s="3" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I60" s="16"/>
       <c r="J60" s="13"/>
@@ -2645,7 +2650,7 @@
     <row r="61" customFormat="1" spans="1:11">
       <c r="A61" s="9"/>
       <c r="B61" s="5" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C61" s="5"/>
       <c r="D61" s="3"/>
@@ -2664,7 +2669,7 @@
     <row r="62" customFormat="1" spans="1:11">
       <c r="A62" s="9"/>
       <c r="B62" s="5" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C62" s="5"/>
       <c r="D62" s="3"/>
@@ -2683,7 +2688,7 @@
     <row r="63" customFormat="1" spans="1:11">
       <c r="A63" s="9"/>
       <c r="B63" s="5" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C63" s="5"/>
       <c r="D63" s="3"/>
@@ -2702,7 +2707,7 @@
     <row r="64" customFormat="1" spans="1:11">
       <c r="A64" s="9"/>
       <c r="B64" s="5" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C64" s="5"/>
       <c r="D64" s="3"/>
@@ -2721,7 +2726,7 @@
     <row r="65" customFormat="1" spans="1:11">
       <c r="A65" s="9"/>
       <c r="B65" s="5" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C65" s="5"/>
       <c r="D65" s="3"/>
@@ -2739,10 +2744,10 @@
     </row>
     <row r="66" customFormat="1" spans="1:11">
       <c r="A66" s="12" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B66" s="5" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C66" s="5"/>
       <c r="D66" s="3"/>
@@ -2752,7 +2757,7 @@
       <c r="F66" s="5"/>
       <c r="G66" s="3"/>
       <c r="H66" s="3" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="I66" s="16"/>
       <c r="J66" s="13"/>
@@ -2761,7 +2766,7 @@
     <row r="67" spans="1:11">
       <c r="A67" s="15"/>
       <c r="B67" s="5" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C67" s="3"/>
       <c r="D67" s="3"/>
@@ -2771,7 +2776,7 @@
       <c r="F67" s="13"/>
       <c r="G67" s="3"/>
       <c r="H67" s="3" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="I67" s="16"/>
       <c r="J67" s="13"/>
@@ -2779,7 +2784,7 @@
     </row>
     <row r="68" spans="1:11">
       <c r="A68" s="5" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B68" s="5"/>
       <c r="C68" s="9"/>
@@ -2798,7 +2803,7 @@
     </row>
     <row r="69" spans="1:11">
       <c r="A69" s="5" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B69" s="5"/>
       <c r="C69" s="9"/>
@@ -2817,7 +2822,7 @@
     </row>
     <row r="70" spans="1:11">
       <c r="A70" s="5" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B70" s="5"/>
       <c r="C70" s="9"/>
@@ -2836,7 +2841,7 @@
     </row>
     <row r="71" spans="1:11">
       <c r="A71" s="5" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B71" s="5"/>
       <c r="C71" s="9"/>
@@ -2855,7 +2860,7 @@
     </row>
     <row r="72" spans="1:11">
       <c r="A72" s="5" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B72" s="5"/>
       <c r="C72" s="9"/>
@@ -2874,7 +2879,7 @@
     </row>
     <row r="73" spans="1:11">
       <c r="A73" s="5" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B73" s="5"/>
       <c r="C73" s="9"/>
@@ -2893,7 +2898,7 @@
     </row>
     <row r="74" spans="5:7">
       <c r="E74" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="G74" s="17"/>
     </row>

--- a/documents/PC原型及需求/需求整理.xlsx
+++ b/documents/PC原型及需求/需求整理.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Rex\personal\git\taxparty\documents\PC原型及需求\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowWidth="22860" windowHeight="10530"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22860" windowHeight="10530"/>
   </bookViews>
   <sheets>
     <sheet name="需求整理" sheetId="1" r:id="rId1"/>
@@ -14,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="98">
   <si>
     <t>项目开发评估计划</t>
   </si>
@@ -148,9 +153,6 @@
     <t>王仁禧</t>
   </si>
   <si>
-    <t>页面可用</t>
-  </si>
-  <si>
     <t>同期资料可比数据</t>
   </si>
   <si>
@@ -299,23 +301,29 @@
   </si>
   <si>
     <t>合计：122</t>
+  </si>
+  <si>
+    <t>联调完成</t>
+  </si>
+  <si>
+    <t>页面功能不全，无法绑定页面</t>
+  </si>
+  <si>
+    <t>页面可用，但是无后台接口。</t>
+  </si>
+  <si>
+    <t>等待联调中</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="26">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -323,7 +331,7 @@
       <b/>
       <sz val="20"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -331,14 +339,14 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -346,7 +354,7 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -354,15 +362,14 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFC00000"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -373,143 +380,14 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -522,194 +400,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="15">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -795,255 +487,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="14" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1068,29 +521,17 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1098,59 +539,113 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="49">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1162,7 +657,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="CCE8CF"/>
+        <a:sysClr val="window" lastClr="C7EDCC"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -1440,55 +935,53 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K75"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G27" sqref="G27"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="H40" sqref="H40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.125" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="19.5703125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="8.625" customWidth="1"/>
-    <col min="2" max="2" width="17.75" customWidth="1"/>
-    <col min="3" max="3" width="14.625" customWidth="1"/>
-    <col min="4" max="4" width="10.625" customWidth="1"/>
-    <col min="5" max="5" width="15.75" customWidth="1"/>
-    <col min="6" max="6" width="8.625" customWidth="1"/>
-    <col min="7" max="7" width="12.625" customWidth="1"/>
-    <col min="8" max="8" width="28.625" customWidth="1"/>
-    <col min="9" max="9" width="10.625" customWidth="1"/>
-    <col min="10" max="10" width="8.625" customWidth="1"/>
-    <col min="11" max="11" width="12.625" customWidth="1"/>
-    <col min="12" max="16383" width="21.125" customWidth="1"/>
+    <col min="1" max="1" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="31.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="25.5" spans="1:11">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:11" ht="26.25">
+      <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
     </row>
-    <row r="2" ht="25.5" spans="1:11">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:11" ht="26.25">
+      <c r="A2" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
+      <c r="B2" s="19"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="19"/>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
@@ -1537,33 +1030,41 @@
         <v>13</v>
       </c>
       <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
+      <c r="D4" s="3" t="s">
+        <v>43</v>
+      </c>
       <c r="E4" s="3">
         <v>1</v>
       </c>
       <c r="F4" s="6"/>
       <c r="G4" s="6"/>
       <c r="H4" s="7" t="s">
-        <v>14</v>
+        <v>95</v>
       </c>
       <c r="I4" s="3"/>
       <c r="J4" s="6"/>
       <c r="K4" s="6"/>
     </row>
     <row r="5" spans="1:11">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="20" t="s">
         <v>15</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>15</v>
       </c>
       <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
+      <c r="D5" s="3" t="s">
+        <v>43</v>
+      </c>
       <c r="E5" s="3">
         <v>1</v>
       </c>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
+      <c r="F5" s="6">
+        <v>42682</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>94</v>
+      </c>
       <c r="H5" s="7" t="s">
         <v>14</v>
       </c>
@@ -1572,11 +1073,11 @@
       <c r="K5" s="6"/>
     </row>
     <row r="6" spans="1:11">
-      <c r="A6" s="8"/>
-      <c r="B6" s="9" t="s">
+      <c r="A6" s="21"/>
+      <c r="B6" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="10" t="s">
+      <c r="C6" s="9" t="s">
         <v>17</v>
       </c>
       <c r="D6" s="3"/>
@@ -1593,9 +1094,9 @@
       <c r="K6" s="6"/>
     </row>
     <row r="7" spans="1:11">
-      <c r="A7" s="8"/>
-      <c r="B7" s="9"/>
-      <c r="C7" s="10" t="s">
+      <c r="A7" s="21"/>
+      <c r="B7" s="14"/>
+      <c r="C7" s="9" t="s">
         <v>18</v>
       </c>
       <c r="D7" s="3"/>
@@ -1612,14 +1113,16 @@
       <c r="K7" s="6"/>
     </row>
     <row r="8" spans="1:11">
-      <c r="A8" s="5"/>
+      <c r="A8" s="20"/>
       <c r="B8" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C8" s="11" t="s">
+      <c r="C8" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="3"/>
+      <c r="D8" s="3" t="s">
+        <v>43</v>
+      </c>
       <c r="E8" s="3">
         <v>0</v>
       </c>
@@ -1633,7 +1136,7 @@
       <c r="K8" s="6"/>
     </row>
     <row r="9" spans="1:11">
-      <c r="A9" s="12" t="s">
+      <c r="A9" s="15" t="s">
         <v>21</v>
       </c>
       <c r="B9" s="5" t="s">
@@ -1644,18 +1147,18 @@
       <c r="E9" s="3">
         <v>2</v>
       </c>
-      <c r="F9" s="13"/>
-      <c r="G9" s="13"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
       <c r="H9" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="I9" s="16"/>
-      <c r="J9" s="13"/>
+      <c r="I9" s="12"/>
+      <c r="J9" s="11"/>
       <c r="K9" s="6"/>
     </row>
     <row r="10" spans="1:11">
-      <c r="A10" s="14"/>
-      <c r="B10" s="9" t="s">
+      <c r="A10" s="17"/>
+      <c r="B10" s="8" t="s">
         <v>22</v>
       </c>
       <c r="C10" s="3" t="s">
@@ -1665,18 +1168,18 @@
       <c r="E10" s="3">
         <v>0</v>
       </c>
-      <c r="F10" s="13"/>
-      <c r="G10" s="13"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="11"/>
       <c r="H10" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="I10" s="16"/>
-      <c r="J10" s="13"/>
+      <c r="I10" s="12"/>
+      <c r="J10" s="11"/>
       <c r="K10" s="6"/>
     </row>
     <row r="11" spans="1:11">
-      <c r="A11" s="14"/>
-      <c r="B11" s="14" t="s">
+      <c r="A11" s="17"/>
+      <c r="B11" s="17" t="s">
         <v>23</v>
       </c>
       <c r="C11" s="3" t="s">
@@ -1686,18 +1189,18 @@
       <c r="E11" s="3">
         <v>1</v>
       </c>
-      <c r="F11" s="13"/>
-      <c r="G11" s="13"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="11"/>
       <c r="H11" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="I11" s="16"/>
-      <c r="J11" s="13"/>
+      <c r="I11" s="12"/>
+      <c r="J11" s="11"/>
       <c r="K11" s="6"/>
     </row>
     <row r="12" spans="1:11">
-      <c r="A12" s="14"/>
-      <c r="B12" s="14"/>
+      <c r="A12" s="17"/>
+      <c r="B12" s="17"/>
       <c r="C12" s="3" t="s">
         <v>25</v>
       </c>
@@ -1705,18 +1208,18 @@
       <c r="E12" s="3">
         <v>2</v>
       </c>
-      <c r="F12" s="13"/>
-      <c r="G12" s="13"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="11"/>
       <c r="H12" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="I12" s="16"/>
-      <c r="J12" s="13"/>
+      <c r="I12" s="12"/>
+      <c r="J12" s="11"/>
       <c r="K12" s="6"/>
     </row>
     <row r="13" spans="1:11">
-      <c r="A13" s="14"/>
-      <c r="B13" s="14"/>
+      <c r="A13" s="17"/>
+      <c r="B13" s="17"/>
       <c r="C13" s="3" t="s">
         <v>26</v>
       </c>
@@ -1724,18 +1227,18 @@
       <c r="E13" s="3">
         <v>3</v>
       </c>
-      <c r="F13" s="13"/>
-      <c r="G13" s="13"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="11"/>
       <c r="H13" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="I13" s="16"/>
-      <c r="J13" s="13"/>
+      <c r="I13" s="12"/>
+      <c r="J13" s="11"/>
       <c r="K13" s="6"/>
     </row>
     <row r="14" spans="1:11">
-      <c r="A14" s="14"/>
-      <c r="B14" s="14"/>
+      <c r="A14" s="17"/>
+      <c r="B14" s="17"/>
       <c r="C14" s="3" t="s">
         <v>27</v>
       </c>
@@ -1743,18 +1246,18 @@
       <c r="E14" s="3">
         <v>2</v>
       </c>
-      <c r="F14" s="13"/>
-      <c r="G14" s="13"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="11"/>
       <c r="H14" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="I14" s="16"/>
-      <c r="J14" s="13"/>
+      <c r="I14" s="12"/>
+      <c r="J14" s="11"/>
       <c r="K14" s="6"/>
     </row>
     <row r="15" spans="1:11">
-      <c r="A15" s="14"/>
-      <c r="B15" s="14"/>
+      <c r="A15" s="17"/>
+      <c r="B15" s="17"/>
       <c r="C15" s="3" t="s">
         <v>29</v>
       </c>
@@ -1762,18 +1265,18 @@
       <c r="E15" s="3">
         <v>3</v>
       </c>
-      <c r="F15" s="13"/>
-      <c r="G15" s="13"/>
+      <c r="F15" s="11"/>
+      <c r="G15" s="11"/>
       <c r="H15" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="I15" s="16"/>
-      <c r="J15" s="13"/>
+      <c r="I15" s="12"/>
+      <c r="J15" s="11"/>
       <c r="K15" s="6"/>
     </row>
     <row r="16" spans="1:11">
-      <c r="A16" s="14"/>
-      <c r="B16" s="14"/>
+      <c r="A16" s="17"/>
+      <c r="B16" s="17"/>
       <c r="C16" s="3" t="s">
         <v>30</v>
       </c>
@@ -1781,18 +1284,18 @@
       <c r="E16" s="3">
         <v>3</v>
       </c>
-      <c r="F16" s="13"/>
-      <c r="G16" s="13"/>
+      <c r="F16" s="11"/>
+      <c r="G16" s="11"/>
       <c r="H16" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="I16" s="16"/>
-      <c r="J16" s="13"/>
+      <c r="I16" s="12"/>
+      <c r="J16" s="11"/>
       <c r="K16" s="6"/>
     </row>
     <row r="17" spans="1:11">
-      <c r="A17" s="14"/>
-      <c r="B17" s="14"/>
+      <c r="A17" s="17"/>
+      <c r="B17" s="17"/>
       <c r="C17" s="3" t="s">
         <v>31</v>
       </c>
@@ -1800,18 +1303,18 @@
       <c r="E17" s="3">
         <v>3</v>
       </c>
-      <c r="F17" s="13"/>
-      <c r="G17" s="13"/>
+      <c r="F17" s="11"/>
+      <c r="G17" s="11"/>
       <c r="H17" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="I17" s="16"/>
-      <c r="J17" s="13"/>
+      <c r="I17" s="12"/>
+      <c r="J17" s="11"/>
       <c r="K17" s="6"/>
     </row>
     <row r="18" spans="1:11">
-      <c r="A18" s="14"/>
-      <c r="B18" s="15"/>
+      <c r="A18" s="17"/>
+      <c r="B18" s="16"/>
       <c r="C18" s="3" t="s">
         <v>32</v>
       </c>
@@ -1819,18 +1322,18 @@
       <c r="E18" s="3">
         <v>2</v>
       </c>
-      <c r="F18" s="13"/>
-      <c r="G18" s="13"/>
+      <c r="F18" s="11"/>
+      <c r="G18" s="11"/>
       <c r="H18" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="I18" s="16"/>
-      <c r="J18" s="13"/>
+      <c r="I18" s="12"/>
+      <c r="J18" s="11"/>
       <c r="K18" s="6"/>
     </row>
     <row r="19" spans="1:11">
-      <c r="A19" s="14"/>
-      <c r="B19" s="12" t="s">
+      <c r="A19" s="17"/>
+      <c r="B19" s="15" t="s">
         <v>33</v>
       </c>
       <c r="C19" s="3" t="s">
@@ -1840,18 +1343,18 @@
       <c r="E19" s="3">
         <v>1</v>
       </c>
-      <c r="F19" s="13"/>
-      <c r="G19" s="13"/>
+      <c r="F19" s="11"/>
+      <c r="G19" s="11"/>
       <c r="H19" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="I19" s="16"/>
-      <c r="J19" s="13"/>
+      <c r="I19" s="12"/>
+      <c r="J19" s="11"/>
       <c r="K19" s="6"/>
     </row>
     <row r="20" spans="1:11">
-      <c r="A20" s="14"/>
-      <c r="B20" s="14"/>
+      <c r="A20" s="17"/>
+      <c r="B20" s="17"/>
       <c r="C20" s="3" t="s">
         <v>35</v>
       </c>
@@ -1859,18 +1362,18 @@
       <c r="E20" s="3">
         <v>1</v>
       </c>
-      <c r="F20" s="13"/>
-      <c r="G20" s="13"/>
+      <c r="F20" s="11"/>
+      <c r="G20" s="11"/>
       <c r="H20" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="I20" s="16"/>
-      <c r="J20" s="13"/>
+      <c r="I20" s="12"/>
+      <c r="J20" s="11"/>
       <c r="K20" s="6"/>
     </row>
     <row r="21" spans="1:11">
-      <c r="A21" s="14"/>
-      <c r="B21" s="14"/>
+      <c r="A21" s="17"/>
+      <c r="B21" s="17"/>
       <c r="C21" s="3" t="s">
         <v>36</v>
       </c>
@@ -1878,18 +1381,18 @@
       <c r="E21" s="3">
         <v>1</v>
       </c>
-      <c r="F21" s="13"/>
-      <c r="G21" s="13"/>
+      <c r="F21" s="11"/>
+      <c r="G21" s="11"/>
       <c r="H21" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="I21" s="16"/>
-      <c r="J21" s="13"/>
+      <c r="I21" s="12"/>
+      <c r="J21" s="11"/>
       <c r="K21" s="6"/>
     </row>
     <row r="22" spans="1:11">
-      <c r="A22" s="14"/>
-      <c r="B22" s="14"/>
+      <c r="A22" s="17"/>
+      <c r="B22" s="17"/>
       <c r="C22" s="3" t="s">
         <v>37</v>
       </c>
@@ -1897,18 +1400,18 @@
       <c r="E22" s="3">
         <v>1</v>
       </c>
-      <c r="F22" s="13"/>
-      <c r="G22" s="13"/>
+      <c r="F22" s="11"/>
+      <c r="G22" s="11"/>
       <c r="H22" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="I22" s="16"/>
-      <c r="J22" s="13"/>
+      <c r="I22" s="12"/>
+      <c r="J22" s="11"/>
       <c r="K22" s="6"/>
     </row>
     <row r="23" spans="1:11">
-      <c r="A23" s="14"/>
-      <c r="B23" s="14"/>
+      <c r="A23" s="17"/>
+      <c r="B23" s="17"/>
       <c r="C23" s="3" t="s">
         <v>38</v>
       </c>
@@ -1916,18 +1419,18 @@
       <c r="E23" s="3">
         <v>3</v>
       </c>
-      <c r="F23" s="13"/>
-      <c r="G23" s="13"/>
+      <c r="F23" s="11"/>
+      <c r="G23" s="11"/>
       <c r="H23" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="I23" s="16"/>
-      <c r="J23" s="13"/>
+      <c r="I23" s="12"/>
+      <c r="J23" s="11"/>
       <c r="K23" s="6"/>
     </row>
     <row r="24" spans="1:11">
-      <c r="A24" s="14"/>
-      <c r="B24" s="14"/>
+      <c r="A24" s="17"/>
+      <c r="B24" s="17"/>
       <c r="C24" s="3" t="s">
         <v>39</v>
       </c>
@@ -1935,18 +1438,18 @@
       <c r="E24" s="3">
         <v>2</v>
       </c>
-      <c r="F24" s="13"/>
-      <c r="G24" s="13"/>
+      <c r="F24" s="11"/>
+      <c r="G24" s="11"/>
       <c r="H24" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="I24" s="16"/>
-      <c r="J24" s="13"/>
+      <c r="I24" s="12"/>
+      <c r="J24" s="11"/>
       <c r="K24" s="6"/>
     </row>
     <row r="25" spans="1:11">
-      <c r="A25" s="14"/>
-      <c r="B25" s="15"/>
+      <c r="A25" s="17"/>
+      <c r="B25" s="16"/>
       <c r="C25" s="3" t="s">
         <v>40</v>
       </c>
@@ -1954,17 +1457,17 @@
       <c r="E25" s="3">
         <v>1</v>
       </c>
-      <c r="F25" s="13"/>
-      <c r="G25" s="13"/>
+      <c r="F25" s="11"/>
+      <c r="G25" s="11"/>
       <c r="H25" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="I25" s="16"/>
-      <c r="J25" s="13"/>
+      <c r="I25" s="12"/>
+      <c r="J25" s="11"/>
       <c r="K25" s="6"/>
     </row>
     <row r="26" spans="1:11">
-      <c r="A26" s="14"/>
+      <c r="A26" s="17"/>
       <c r="B26" s="5" t="s">
         <v>41</v>
       </c>
@@ -1973,17 +1476,17 @@
       <c r="E26" s="3">
         <v>0</v>
       </c>
-      <c r="F26" s="13"/>
-      <c r="G26" s="13"/>
+      <c r="F26" s="11"/>
+      <c r="G26" s="11"/>
       <c r="H26" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="I26" s="16"/>
-      <c r="J26" s="13"/>
+      <c r="I26" s="12"/>
+      <c r="J26" s="11"/>
       <c r="K26" s="6"/>
     </row>
     <row r="27" spans="1:11">
-      <c r="A27" s="14"/>
+      <c r="A27" s="17"/>
       <c r="B27" s="5" t="s">
         <v>42</v>
       </c>
@@ -1994,270 +1497,288 @@
       <c r="E27" s="3">
         <v>1</v>
       </c>
-      <c r="F27" s="13"/>
-      <c r="G27" s="13"/>
+      <c r="F27" s="11"/>
+      <c r="G27" s="11" t="s">
+        <v>97</v>
+      </c>
       <c r="H27" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="I27" s="12"/>
+      <c r="J27" s="11"/>
+      <c r="K27" s="6"/>
+    </row>
+    <row r="28" spans="1:11">
+      <c r="A28" s="17"/>
+      <c r="B28" s="5" t="s">
         <v>44</v>
-      </c>
-      <c r="I27" s="16"/>
-      <c r="J27" s="13"/>
-      <c r="K27" s="6"/>
-    </row>
-    <row r="28" spans="1:11">
-      <c r="A28" s="14"/>
-      <c r="B28" s="5" t="s">
-        <v>45</v>
       </c>
       <c r="D28" s="3"/>
       <c r="E28" s="3">
         <v>3</v>
       </c>
-      <c r="F28" s="13"/>
-      <c r="G28" s="13"/>
+      <c r="F28" s="11"/>
+      <c r="G28" s="11"/>
       <c r="H28" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="I28" s="16"/>
-      <c r="J28" s="13"/>
+      <c r="I28" s="12"/>
+      <c r="J28" s="11"/>
       <c r="K28" s="6"/>
     </row>
     <row r="29" spans="1:11">
-      <c r="A29" s="14"/>
-      <c r="B29" s="12" t="s">
+      <c r="A29" s="17"/>
+      <c r="B29" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="C29" s="3" t="s">
         <v>46</v>
-      </c>
-      <c r="C29" s="3" t="s">
-        <v>47</v>
       </c>
       <c r="D29" s="3"/>
       <c r="E29" s="3">
         <v>2</v>
       </c>
-      <c r="F29" s="13"/>
-      <c r="G29" s="13"/>
+      <c r="F29" s="11"/>
+      <c r="G29" s="11"/>
       <c r="H29" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="I29" s="16"/>
-      <c r="J29" s="13"/>
+      <c r="I29" s="12"/>
+      <c r="J29" s="11"/>
       <c r="K29" s="6"/>
     </row>
     <row r="30" spans="1:11">
-      <c r="A30" s="14"/>
-      <c r="B30" s="14"/>
+      <c r="A30" s="17"/>
+      <c r="B30" s="17"/>
       <c r="C30" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D30" s="3"/>
       <c r="E30" s="3">
         <v>2</v>
       </c>
-      <c r="F30" s="13"/>
-      <c r="G30" s="13"/>
+      <c r="F30" s="11"/>
+      <c r="G30" s="11"/>
       <c r="H30" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="I30" s="16"/>
-      <c r="J30" s="13"/>
+      <c r="I30" s="12"/>
+      <c r="J30" s="11"/>
       <c r="K30" s="6"/>
     </row>
     <row r="31" spans="1:11">
-      <c r="A31" s="14"/>
-      <c r="B31" s="14"/>
+      <c r="A31" s="17"/>
+      <c r="B31" s="17"/>
       <c r="C31" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D31" s="3"/>
       <c r="E31" s="3">
         <v>2</v>
       </c>
-      <c r="F31" s="13"/>
-      <c r="G31" s="13"/>
+      <c r="F31" s="11"/>
+      <c r="G31" s="11"/>
       <c r="H31" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="I31" s="16"/>
-      <c r="J31" s="13"/>
+      <c r="I31" s="12"/>
+      <c r="J31" s="11"/>
       <c r="K31" s="6"/>
     </row>
     <row r="32" spans="1:11">
-      <c r="A32" s="14"/>
-      <c r="B32" s="14"/>
+      <c r="A32" s="17"/>
+      <c r="B32" s="17"/>
       <c r="C32" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D32" s="3"/>
       <c r="E32" s="3">
         <v>2</v>
       </c>
-      <c r="F32" s="13"/>
-      <c r="G32" s="13"/>
+      <c r="F32" s="11"/>
+      <c r="G32" s="11"/>
       <c r="H32" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="I32" s="16"/>
-      <c r="J32" s="13"/>
+      <c r="I32" s="12"/>
+      <c r="J32" s="11"/>
       <c r="K32" s="6"/>
     </row>
     <row r="33" spans="1:11">
-      <c r="A33" s="14"/>
-      <c r="B33" s="15"/>
+      <c r="A33" s="17"/>
+      <c r="B33" s="16"/>
       <c r="C33" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D33" s="3"/>
       <c r="E33" s="3">
         <v>2</v>
       </c>
-      <c r="F33" s="13"/>
-      <c r="G33" s="13"/>
+      <c r="F33" s="11"/>
+      <c r="G33" s="11"/>
       <c r="H33" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="I33" s="16"/>
-      <c r="J33" s="13"/>
+      <c r="I33" s="12"/>
+      <c r="J33" s="11"/>
       <c r="K33" s="6"/>
     </row>
     <row r="34" spans="1:11">
-      <c r="A34" s="14"/>
-      <c r="B34" s="14" t="s">
+      <c r="A34" s="17"/>
+      <c r="B34" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="C34" s="3" t="s">
         <v>52</v>
-      </c>
-      <c r="C34" s="3" t="s">
-        <v>53</v>
       </c>
       <c r="D34" s="3"/>
       <c r="E34" s="3">
         <v>2</v>
       </c>
-      <c r="F34" s="13"/>
-      <c r="G34" s="13"/>
+      <c r="F34" s="11"/>
+      <c r="G34" s="11"/>
       <c r="H34" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="I34" s="16"/>
-      <c r="J34" s="13"/>
+      <c r="I34" s="12"/>
+      <c r="J34" s="11"/>
       <c r="K34" s="6"/>
     </row>
     <row r="35" spans="1:11">
-      <c r="A35" s="14"/>
-      <c r="B35" s="14"/>
+      <c r="A35" s="17"/>
+      <c r="B35" s="17"/>
       <c r="C35" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D35" s="3"/>
       <c r="E35" s="3">
         <v>2</v>
       </c>
-      <c r="F35" s="13"/>
-      <c r="G35" s="13"/>
+      <c r="F35" s="11"/>
+      <c r="G35" s="11"/>
       <c r="H35" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="I35" s="16"/>
-      <c r="J35" s="13"/>
+      <c r="I35" s="12"/>
+      <c r="J35" s="11"/>
       <c r="K35" s="6"/>
     </row>
     <row r="36" spans="1:11">
-      <c r="A36" s="14"/>
-      <c r="B36" s="15"/>
+      <c r="A36" s="17"/>
+      <c r="B36" s="16"/>
       <c r="C36" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D36" s="3"/>
       <c r="E36" s="3">
         <v>2</v>
       </c>
-      <c r="F36" s="13"/>
-      <c r="G36" s="13"/>
+      <c r="F36" s="11"/>
+      <c r="G36" s="11"/>
       <c r="H36" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="I36" s="16"/>
-      <c r="J36" s="13"/>
+      <c r="I36" s="12"/>
+      <c r="J36" s="11"/>
       <c r="K36" s="6"/>
     </row>
     <row r="37" spans="1:11">
-      <c r="A37" s="14"/>
+      <c r="A37" s="17"/>
       <c r="B37" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C37" s="3"/>
+      <c r="D37" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E37" s="3">
+        <v>2</v>
+      </c>
+      <c r="F37" s="11"/>
+      <c r="G37" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="H37" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="I37" s="12"/>
+      <c r="J37" s="11"/>
+      <c r="K37" s="6"/>
+    </row>
+    <row r="38" spans="1:11">
+      <c r="A38" s="17"/>
+      <c r="B38" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="C37" s="3"/>
-      <c r="D37" s="3"/>
-      <c r="E37" s="3">
-        <v>2</v>
-      </c>
-      <c r="F37" s="13"/>
-      <c r="G37" s="13"/>
-      <c r="H37" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="I37" s="16"/>
-      <c r="J37" s="13"/>
-      <c r="K37" s="6"/>
-    </row>
-    <row r="38" spans="1:11">
-      <c r="A38" s="14"/>
-      <c r="B38" s="5" t="s">
+      <c r="C38" s="3"/>
+      <c r="D38" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E38" s="3">
+        <v>2</v>
+      </c>
+      <c r="F38" s="11"/>
+      <c r="G38" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="H38" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="I38" s="12"/>
+      <c r="J38" s="11"/>
+      <c r="K38" s="6"/>
+    </row>
+    <row r="39" spans="1:11">
+      <c r="A39" s="17"/>
+      <c r="B39" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="C38" s="3"/>
-      <c r="D38" s="3"/>
-      <c r="E38" s="3">
-        <v>2</v>
-      </c>
-      <c r="F38" s="13"/>
-      <c r="G38" s="13"/>
-      <c r="H38" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="I38" s="16"/>
-      <c r="J38" s="13"/>
-      <c r="K38" s="6"/>
-    </row>
-    <row r="39" spans="1:11">
-      <c r="A39" s="14"/>
-      <c r="B39" s="5" t="s">
-        <v>58</v>
-      </c>
       <c r="C39" s="3"/>
-      <c r="D39" s="3"/>
+      <c r="D39" s="3" t="s">
+        <v>43</v>
+      </c>
       <c r="E39" s="3">
         <v>1</v>
       </c>
-      <c r="F39" s="13"/>
-      <c r="G39" s="13"/>
+      <c r="F39" s="11"/>
+      <c r="G39" s="11" t="s">
+        <v>97</v>
+      </c>
       <c r="H39" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="I39" s="16"/>
-      <c r="J39" s="13"/>
+        <v>96</v>
+      </c>
+      <c r="I39" s="12"/>
+      <c r="J39" s="11"/>
       <c r="K39" s="6"/>
     </row>
     <row r="40" spans="1:11">
-      <c r="A40" s="14"/>
+      <c r="A40" s="17"/>
       <c r="B40" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C40" s="3"/>
-      <c r="D40" s="3"/>
+      <c r="D40" s="3" t="s">
+        <v>43</v>
+      </c>
       <c r="E40" s="3">
         <v>1</v>
       </c>
-      <c r="F40" s="13"/>
-      <c r="G40" s="13"/>
+      <c r="F40" s="11"/>
+      <c r="G40" s="11" t="s">
+        <v>97</v>
+      </c>
       <c r="H40" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="I40" s="16"/>
-      <c r="J40" s="13"/>
+        <v>96</v>
+      </c>
+      <c r="I40" s="12"/>
+      <c r="J40" s="11"/>
       <c r="K40" s="6"/>
     </row>
-    <row r="41" customFormat="1" spans="1:11">
-      <c r="A41" s="12" t="s">
+    <row r="41" spans="1:11">
+      <c r="A41" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="B41" s="12" t="s">
+      <c r="B41" s="15" t="s">
         <v>34</v>
       </c>
       <c r="C41" s="3" t="s">
@@ -2267,18 +1788,18 @@
       <c r="E41" s="3">
         <v>2</v>
       </c>
-      <c r="F41" s="13"/>
-      <c r="G41" s="13"/>
+      <c r="F41" s="11"/>
+      <c r="G41" s="11"/>
       <c r="H41" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="I41" s="16"/>
-      <c r="J41" s="13"/>
+      <c r="I41" s="12"/>
+      <c r="J41" s="11"/>
       <c r="K41" s="6"/>
     </row>
-    <row r="42" customFormat="1" spans="1:11">
-      <c r="A42" s="14"/>
-      <c r="B42" s="15"/>
+    <row r="42" spans="1:11">
+      <c r="A42" s="17"/>
+      <c r="B42" s="16"/>
       <c r="C42" s="3" t="s">
         <v>35</v>
       </c>
@@ -2286,19 +1807,19 @@
       <c r="E42" s="3">
         <v>2</v>
       </c>
-      <c r="F42" s="13"/>
-      <c r="G42" s="13"/>
+      <c r="F42" s="11"/>
+      <c r="G42" s="11"/>
       <c r="H42" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="I42" s="16"/>
-      <c r="J42" s="13"/>
+      <c r="I42" s="12"/>
+      <c r="J42" s="11"/>
       <c r="K42" s="6"/>
     </row>
-    <row r="43" customFormat="1" spans="1:11">
-      <c r="A43" s="14"/>
-      <c r="B43" s="12" t="s">
-        <v>60</v>
+    <row r="43" spans="1:11">
+      <c r="A43" s="17"/>
+      <c r="B43" s="15" t="s">
+        <v>59</v>
       </c>
       <c r="C43" s="3" t="s">
         <v>36</v>
@@ -2307,37 +1828,37 @@
       <c r="E43" s="3">
         <v>2</v>
       </c>
-      <c r="F43" s="13"/>
-      <c r="G43" s="13"/>
+      <c r="F43" s="11"/>
+      <c r="G43" s="11"/>
       <c r="H43" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="I43" s="16"/>
-      <c r="J43" s="13"/>
+      <c r="I43" s="12"/>
+      <c r="J43" s="11"/>
       <c r="K43" s="6"/>
     </row>
-    <row r="44" customFormat="1" spans="1:11">
-      <c r="A44" s="14"/>
-      <c r="B44" s="14"/>
+    <row r="44" spans="1:11">
+      <c r="A44" s="17"/>
+      <c r="B44" s="17"/>
       <c r="C44" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D44" s="3"/>
       <c r="E44" s="3">
         <v>2</v>
       </c>
-      <c r="F44" s="13"/>
-      <c r="G44" s="13"/>
+      <c r="F44" s="11"/>
+      <c r="G44" s="11"/>
       <c r="H44" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="I44" s="16"/>
-      <c r="J44" s="13"/>
+      <c r="I44" s="12"/>
+      <c r="J44" s="11"/>
       <c r="K44" s="6"/>
     </row>
-    <row r="45" customFormat="1" spans="1:11">
-      <c r="A45" s="14"/>
-      <c r="B45" s="15"/>
+    <row r="45" spans="1:11">
+      <c r="A45" s="17"/>
+      <c r="B45" s="16"/>
       <c r="C45" s="3" t="s">
         <v>40</v>
       </c>
@@ -2345,176 +1866,176 @@
       <c r="E45" s="3">
         <v>2</v>
       </c>
-      <c r="F45" s="13"/>
-      <c r="G45" s="13"/>
+      <c r="F45" s="11"/>
+      <c r="G45" s="11"/>
       <c r="H45" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="I45" s="16"/>
-      <c r="J45" s="13"/>
+      <c r="I45" s="12"/>
+      <c r="J45" s="11"/>
       <c r="K45" s="6"/>
     </row>
-    <row r="46" customFormat="1" spans="1:11">
-      <c r="A46" s="14"/>
-      <c r="B46" s="14" t="s">
+    <row r="46" spans="1:11">
+      <c r="A46" s="17"/>
+      <c r="B46" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="C46" s="3" t="s">
         <v>62</v>
-      </c>
-      <c r="C46" s="3" t="s">
-        <v>63</v>
       </c>
       <c r="D46" s="3"/>
       <c r="E46" s="3">
         <v>2</v>
       </c>
-      <c r="F46" s="13"/>
-      <c r="G46" s="13"/>
+      <c r="F46" s="11"/>
+      <c r="G46" s="11"/>
       <c r="H46" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="I46" s="12"/>
+      <c r="J46" s="11"/>
+      <c r="K46" s="6"/>
+    </row>
+    <row r="47" spans="1:11">
+      <c r="A47" s="17"/>
+      <c r="B47" s="17"/>
+      <c r="C47" s="3" t="s">
         <v>64</v>
-      </c>
-      <c r="I46" s="16"/>
-      <c r="J46" s="13"/>
-      <c r="K46" s="6"/>
-    </row>
-    <row r="47" customFormat="1" spans="1:11">
-      <c r="A47" s="14"/>
-      <c r="B47" s="14"/>
-      <c r="C47" s="3" t="s">
-        <v>65</v>
       </c>
       <c r="D47" s="3"/>
       <c r="E47" s="3">
         <v>2</v>
       </c>
-      <c r="F47" s="13"/>
-      <c r="G47" s="13"/>
+      <c r="F47" s="11"/>
+      <c r="G47" s="11"/>
       <c r="H47" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="I47" s="16"/>
-      <c r="J47" s="13"/>
+        <v>63</v>
+      </c>
+      <c r="I47" s="12"/>
+      <c r="J47" s="11"/>
       <c r="K47" s="6"/>
     </row>
-    <row r="48" customFormat="1" spans="1:11">
-      <c r="A48" s="14"/>
-      <c r="B48" s="14"/>
+    <row r="48" spans="1:11">
+      <c r="A48" s="17"/>
+      <c r="B48" s="17"/>
       <c r="C48" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D48" s="3"/>
       <c r="E48" s="3">
         <v>2</v>
       </c>
-      <c r="F48" s="13"/>
-      <c r="G48" s="13"/>
+      <c r="F48" s="11"/>
+      <c r="G48" s="11"/>
       <c r="H48" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="I48" s="16"/>
-      <c r="J48" s="13"/>
+        <v>63</v>
+      </c>
+      <c r="I48" s="12"/>
+      <c r="J48" s="11"/>
       <c r="K48" s="6"/>
     </row>
-    <row r="49" customFormat="1" spans="1:11">
-      <c r="A49" s="14"/>
-      <c r="B49" s="15"/>
+    <row r="49" spans="1:11">
+      <c r="A49" s="17"/>
+      <c r="B49" s="16"/>
       <c r="C49" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D49" s="3"/>
       <c r="E49" s="3">
         <v>2</v>
       </c>
-      <c r="F49" s="13"/>
-      <c r="G49" s="13"/>
+      <c r="F49" s="11"/>
+      <c r="G49" s="11"/>
       <c r="H49" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="I49" s="16"/>
-      <c r="J49" s="13"/>
+        <v>63</v>
+      </c>
+      <c r="I49" s="12"/>
+      <c r="J49" s="11"/>
       <c r="K49" s="6"/>
     </row>
-    <row r="50" customFormat="1" spans="1:11">
-      <c r="A50" s="14"/>
-      <c r="B50" s="12" t="s">
+    <row r="50" spans="1:11">
+      <c r="A50" s="17"/>
+      <c r="B50" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="C50" s="3" t="s">
         <v>68</v>
-      </c>
-      <c r="C50" s="3" t="s">
-        <v>69</v>
       </c>
       <c r="D50" s="3"/>
       <c r="E50" s="3">
         <v>2</v>
       </c>
-      <c r="F50" s="13"/>
-      <c r="G50" s="13"/>
+      <c r="F50" s="11"/>
+      <c r="G50" s="11"/>
       <c r="H50" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="I50" s="16"/>
-      <c r="J50" s="13"/>
+      <c r="I50" s="12"/>
+      <c r="J50" s="11"/>
       <c r="K50" s="6"/>
     </row>
-    <row r="51" customFormat="1" spans="1:11">
-      <c r="A51" s="14"/>
-      <c r="B51" s="14"/>
+    <row r="51" spans="1:11">
+      <c r="A51" s="17"/>
+      <c r="B51" s="17"/>
       <c r="C51" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D51" s="3"/>
       <c r="E51" s="3">
         <v>2</v>
       </c>
-      <c r="F51" s="13"/>
-      <c r="G51" s="13"/>
+      <c r="F51" s="11"/>
+      <c r="G51" s="11"/>
       <c r="H51" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="I51" s="16"/>
-      <c r="J51" s="13"/>
+      <c r="I51" s="12"/>
+      <c r="J51" s="11"/>
       <c r="K51" s="6"/>
     </row>
-    <row r="52" customFormat="1" spans="1:11">
-      <c r="A52" s="14"/>
-      <c r="B52" s="15"/>
+    <row r="52" spans="1:11">
+      <c r="A52" s="17"/>
+      <c r="B52" s="16"/>
       <c r="C52" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D52" s="3"/>
       <c r="E52" s="3">
         <v>1</v>
       </c>
-      <c r="F52" s="13"/>
-      <c r="G52" s="13"/>
+      <c r="F52" s="11"/>
+      <c r="G52" s="11"/>
       <c r="H52" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="I52" s="16"/>
-      <c r="J52" s="13"/>
+      <c r="I52" s="12"/>
+      <c r="J52" s="11"/>
       <c r="K52" s="6"/>
     </row>
-    <row r="53" customFormat="1" spans="1:11">
-      <c r="A53" s="14"/>
+    <row r="53" spans="1:11">
+      <c r="A53" s="17"/>
       <c r="B53" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C53" s="3"/>
       <c r="D53" s="3"/>
       <c r="E53" s="3">
         <v>3</v>
       </c>
-      <c r="F53" s="13"/>
-      <c r="G53" s="13"/>
+      <c r="F53" s="11"/>
+      <c r="G53" s="11"/>
       <c r="H53" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="I53" s="16"/>
-      <c r="J53" s="13"/>
+      <c r="I53" s="12"/>
+      <c r="J53" s="11"/>
       <c r="K53" s="6"/>
     </row>
-    <row r="54" customFormat="1" spans="1:11">
-      <c r="A54" s="9" t="s">
+    <row r="54" spans="1:11">
+      <c r="A54" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="B54" s="9" t="s">
+      <c r="B54" s="8" t="s">
         <v>22</v>
       </c>
       <c r="C54" s="3"/>
@@ -2522,97 +2043,97 @@
       <c r="E54" s="3">
         <v>2</v>
       </c>
-      <c r="F54" s="13"/>
-      <c r="G54" s="13"/>
+      <c r="F54" s="11"/>
+      <c r="G54" s="11"/>
       <c r="H54" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="I54" s="16"/>
-      <c r="J54" s="13"/>
+      <c r="I54" s="12"/>
+      <c r="J54" s="11"/>
       <c r="K54" s="6"/>
     </row>
-    <row r="55" customFormat="1" spans="1:11">
-      <c r="A55" s="9"/>
-      <c r="B55" s="9" t="s">
-        <v>73</v>
+    <row r="55" spans="1:11">
+      <c r="A55" s="14"/>
+      <c r="B55" s="8" t="s">
+        <v>72</v>
       </c>
       <c r="C55" s="3"/>
       <c r="D55" s="3"/>
       <c r="E55" s="3">
         <v>2</v>
       </c>
-      <c r="F55" s="13"/>
-      <c r="G55" s="13"/>
+      <c r="F55" s="11"/>
+      <c r="G55" s="11"/>
       <c r="H55" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="I55" s="16"/>
-      <c r="J55" s="13"/>
+      <c r="I55" s="12"/>
+      <c r="J55" s="11"/>
       <c r="K55" s="6"/>
     </row>
-    <row r="56" customFormat="1" spans="1:11">
-      <c r="A56" s="9"/>
-      <c r="B56" s="9" t="s">
-        <v>74</v>
+    <row r="56" spans="1:11">
+      <c r="A56" s="14"/>
+      <c r="B56" s="8" t="s">
+        <v>73</v>
       </c>
       <c r="C56" s="3"/>
       <c r="D56" s="3"/>
       <c r="E56" s="3">
         <v>2</v>
       </c>
-      <c r="F56" s="13"/>
-      <c r="G56" s="13"/>
+      <c r="F56" s="11"/>
+      <c r="G56" s="11"/>
       <c r="H56" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="I56" s="16"/>
-      <c r="J56" s="13"/>
+      <c r="I56" s="12"/>
+      <c r="J56" s="11"/>
       <c r="K56" s="6"/>
     </row>
-    <row r="57" customFormat="1" spans="1:11">
-      <c r="A57" s="9"/>
-      <c r="B57" s="9" t="s">
-        <v>75</v>
+    <row r="57" spans="1:11">
+      <c r="A57" s="14"/>
+      <c r="B57" s="8" t="s">
+        <v>74</v>
       </c>
       <c r="C57" s="3"/>
       <c r="D57" s="3"/>
       <c r="E57" s="3">
         <v>1</v>
       </c>
-      <c r="F57" s="13"/>
-      <c r="G57" s="13"/>
+      <c r="F57" s="11"/>
+      <c r="G57" s="11"/>
       <c r="H57" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="I57" s="16"/>
-      <c r="J57" s="13"/>
+      <c r="I57" s="12"/>
+      <c r="J57" s="11"/>
       <c r="K57" s="6"/>
     </row>
-    <row r="58" customFormat="1" spans="1:11">
-      <c r="A58" s="9"/>
-      <c r="B58" s="9" t="s">
-        <v>76</v>
+    <row r="58" spans="1:11">
+      <c r="A58" s="14"/>
+      <c r="B58" s="8" t="s">
+        <v>75</v>
       </c>
       <c r="C58" s="3"/>
       <c r="D58" s="3"/>
       <c r="E58" s="3">
         <v>1</v>
       </c>
-      <c r="F58" s="13"/>
-      <c r="G58" s="13"/>
+      <c r="F58" s="11"/>
+      <c r="G58" s="11"/>
       <c r="H58" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="I58" s="16"/>
-      <c r="J58" s="13"/>
+      <c r="I58" s="12"/>
+      <c r="J58" s="11"/>
       <c r="K58" s="6"/>
     </row>
-    <row r="59" customFormat="1" spans="1:11">
-      <c r="A59" s="9" t="s">
+    <row r="59" spans="1:11">
+      <c r="A59" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="B59" s="5" t="s">
         <v>77</v>
-      </c>
-      <c r="B59" s="5" t="s">
-        <v>78</v>
       </c>
       <c r="C59" s="5"/>
       <c r="D59" s="3"/>
@@ -2624,14 +2145,14 @@
       <c r="H59" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="I59" s="16"/>
-      <c r="J59" s="13"/>
+      <c r="I59" s="12"/>
+      <c r="J59" s="11"/>
       <c r="K59" s="6"/>
     </row>
-    <row r="60" customFormat="1" spans="1:11">
-      <c r="A60" s="9"/>
+    <row r="60" spans="1:11">
+      <c r="A60" s="14"/>
       <c r="B60" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C60" s="5"/>
       <c r="D60" s="3"/>
@@ -2641,16 +2162,16 @@
       <c r="F60" s="5"/>
       <c r="G60" s="3"/>
       <c r="H60" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="I60" s="12"/>
+      <c r="J60" s="11"/>
+      <c r="K60" s="6"/>
+    </row>
+    <row r="61" spans="1:11">
+      <c r="A61" s="14"/>
+      <c r="B61" s="5" t="s">
         <v>80</v>
-      </c>
-      <c r="I60" s="16"/>
-      <c r="J60" s="13"/>
-      <c r="K60" s="6"/>
-    </row>
-    <row r="61" customFormat="1" spans="1:11">
-      <c r="A61" s="9"/>
-      <c r="B61" s="5" t="s">
-        <v>81</v>
       </c>
       <c r="C61" s="5"/>
       <c r="D61" s="3"/>
@@ -2662,14 +2183,14 @@
       <c r="H61" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="I61" s="16"/>
-      <c r="J61" s="13"/>
+      <c r="I61" s="12"/>
+      <c r="J61" s="11"/>
       <c r="K61" s="6"/>
     </row>
-    <row r="62" customFormat="1" spans="1:11">
-      <c r="A62" s="9"/>
+    <row r="62" spans="1:11">
+      <c r="A62" s="14"/>
       <c r="B62" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C62" s="5"/>
       <c r="D62" s="3"/>
@@ -2681,14 +2202,14 @@
       <c r="H62" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="I62" s="16"/>
-      <c r="J62" s="13"/>
+      <c r="I62" s="12"/>
+      <c r="J62" s="11"/>
       <c r="K62" s="6"/>
     </row>
-    <row r="63" customFormat="1" spans="1:11">
-      <c r="A63" s="9"/>
+    <row r="63" spans="1:11">
+      <c r="A63" s="14"/>
       <c r="B63" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C63" s="5"/>
       <c r="D63" s="3"/>
@@ -2700,14 +2221,14 @@
       <c r="H63" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="I63" s="16"/>
-      <c r="J63" s="13"/>
+      <c r="I63" s="12"/>
+      <c r="J63" s="11"/>
       <c r="K63" s="6"/>
     </row>
-    <row r="64" customFormat="1" spans="1:11">
-      <c r="A64" s="9"/>
+    <row r="64" spans="1:11">
+      <c r="A64" s="14"/>
       <c r="B64" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C64" s="5"/>
       <c r="D64" s="3"/>
@@ -2719,14 +2240,14 @@
       <c r="H64" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="I64" s="16"/>
-      <c r="J64" s="13"/>
+      <c r="I64" s="12"/>
+      <c r="J64" s="11"/>
       <c r="K64" s="6"/>
     </row>
-    <row r="65" customFormat="1" spans="1:11">
-      <c r="A65" s="9"/>
+    <row r="65" spans="1:11">
+      <c r="A65" s="14"/>
       <c r="B65" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C65" s="5"/>
       <c r="D65" s="3"/>
@@ -2738,16 +2259,16 @@
       <c r="H65" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="I65" s="16"/>
-      <c r="J65" s="13"/>
+      <c r="I65" s="12"/>
+      <c r="J65" s="11"/>
       <c r="K65" s="6"/>
     </row>
-    <row r="66" customFormat="1" spans="1:11">
-      <c r="A66" s="12" t="s">
-        <v>86</v>
+    <row r="66" spans="1:11">
+      <c r="A66" s="15" t="s">
+        <v>85</v>
       </c>
       <c r="B66" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C66" s="5"/>
       <c r="D66" s="3"/>
@@ -2757,132 +2278,132 @@
       <c r="F66" s="5"/>
       <c r="G66" s="3"/>
       <c r="H66" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="I66" s="12"/>
+      <c r="J66" s="11"/>
+      <c r="K66" s="6"/>
+    </row>
+    <row r="67" spans="1:11">
+      <c r="A67" s="16"/>
+      <c r="B67" s="5" t="s">
         <v>87</v>
-      </c>
-      <c r="I66" s="16"/>
-      <c r="J66" s="13"/>
-      <c r="K66" s="6"/>
-    </row>
-    <row r="67" spans="1:11">
-      <c r="A67" s="15"/>
-      <c r="B67" s="5" t="s">
-        <v>88</v>
       </c>
       <c r="C67" s="3"/>
       <c r="D67" s="3"/>
       <c r="E67" s="3">
         <v>2</v>
       </c>
-      <c r="F67" s="13"/>
+      <c r="F67" s="11"/>
       <c r="G67" s="3"/>
       <c r="H67" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="I67" s="16"/>
-      <c r="J67" s="13"/>
+        <v>86</v>
+      </c>
+      <c r="I67" s="12"/>
+      <c r="J67" s="11"/>
       <c r="K67" s="6"/>
     </row>
     <row r="68" spans="1:11">
       <c r="A68" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B68" s="5"/>
-      <c r="C68" s="9"/>
+      <c r="C68" s="8"/>
       <c r="D68" s="3"/>
       <c r="E68" s="3">
         <v>3</v>
       </c>
-      <c r="F68" s="13"/>
+      <c r="F68" s="11"/>
       <c r="G68" s="3"/>
       <c r="H68" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="I68" s="16"/>
-      <c r="J68" s="13"/>
+      <c r="I68" s="12"/>
+      <c r="J68" s="11"/>
       <c r="K68" s="3"/>
     </row>
     <row r="69" spans="1:11">
       <c r="A69" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B69" s="5"/>
-      <c r="C69" s="9"/>
+      <c r="C69" s="8"/>
       <c r="D69" s="3"/>
       <c r="E69" s="3">
         <v>2</v>
       </c>
-      <c r="F69" s="13"/>
+      <c r="F69" s="11"/>
       <c r="G69" s="3"/>
       <c r="H69" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="I69" s="16"/>
-      <c r="J69" s="13"/>
+      <c r="I69" s="12"/>
+      <c r="J69" s="11"/>
       <c r="K69" s="3"/>
     </row>
     <row r="70" spans="1:11">
       <c r="A70" s="5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B70" s="5"/>
-      <c r="C70" s="9"/>
+      <c r="C70" s="8"/>
       <c r="D70" s="3"/>
       <c r="E70" s="3">
         <v>1</v>
       </c>
-      <c r="F70" s="13"/>
+      <c r="F70" s="11"/>
       <c r="G70" s="3"/>
       <c r="H70" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="I70" s="16"/>
+      <c r="I70" s="12"/>
       <c r="J70" s="6"/>
       <c r="K70" s="3"/>
     </row>
     <row r="71" spans="1:11">
       <c r="A71" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B71" s="5"/>
-      <c r="C71" s="9"/>
+      <c r="C71" s="8"/>
       <c r="D71" s="3"/>
       <c r="E71" s="3">
         <v>1</v>
       </c>
-      <c r="F71" s="13"/>
+      <c r="F71" s="11"/>
       <c r="G71" s="3"/>
       <c r="H71" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="I71" s="16"/>
+      <c r="I71" s="12"/>
       <c r="J71" s="6"/>
       <c r="K71" s="3"/>
     </row>
     <row r="72" spans="1:11">
       <c r="A72" s="5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B72" s="5"/>
-      <c r="C72" s="9"/>
+      <c r="C72" s="8"/>
       <c r="D72" s="3"/>
       <c r="E72" s="3">
         <v>1</v>
       </c>
-      <c r="F72" s="13"/>
+      <c r="F72" s="11"/>
       <c r="G72" s="3"/>
       <c r="H72" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="I72" s="16"/>
+      <c r="I72" s="12"/>
       <c r="J72" s="6"/>
       <c r="K72" s="3"/>
     </row>
     <row r="73" spans="1:11">
       <c r="A73" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B73" s="5"/>
-      <c r="C73" s="9"/>
+      <c r="C73" s="8"/>
       <c r="D73" s="3"/>
       <c r="E73" s="3">
         <v>1</v>
@@ -2892,18 +2413,18 @@
       <c r="H73" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="I73" s="16"/>
+      <c r="I73" s="12"/>
       <c r="J73" s="6"/>
       <c r="K73" s="3"/>
     </row>
-    <row r="74" spans="5:7">
+    <row r="74" spans="1:11">
       <c r="E74" t="s">
-        <v>94</v>
-      </c>
-      <c r="G74" s="17"/>
-    </row>
-    <row r="75" spans="7:7">
-      <c r="G75" s="17"/>
+        <v>93</v>
+      </c>
+      <c r="G74" s="13"/>
+    </row>
+    <row r="75" spans="1:11">
+      <c r="G75" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="17">
@@ -2928,8 +2449,7 @@
   <hyperlinks>
     <hyperlink ref="C8" location="需求整理!B4" display="注册"/>
   </hyperlinks>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>